--- a/Moscow_Demography.xlsx
+++ b/Moscow_Demography.xlsx
@@ -433,9 +433,6 @@
     <t>Savyolovsky</t>
   </si>
   <si>
-    <t>Sokol </t>
-  </si>
-  <si>
     <t>Timiryazevsky</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>Losinoostrovsky</t>
   </si>
   <si>
-    <t>Marfino </t>
-  </si>
-  <si>
     <t>Maryina roshcha</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t>Severny</t>
   </si>
   <si>
-    <t>Sviblovo </t>
-  </si>
-  <si>
     <t>Yaroslavsky</t>
   </si>
   <si>
@@ -715,15 +706,9 @@
     <t>Kurkino</t>
   </si>
   <si>
-    <t>Mitino </t>
-  </si>
-  <si>
     <t>Pokrovskoye-Streshnevo</t>
   </si>
   <si>
-    <t>Severnoye Tushino </t>
-  </si>
-  <si>
     <t>Shchukino</t>
   </si>
   <si>
@@ -749,6 +734,21 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Mitino</t>
+  </si>
+  <si>
+    <t>Sviblovo</t>
+  </si>
+  <si>
+    <t>Sokol</t>
+  </si>
+  <si>
+    <t>Marfino</t>
+  </si>
+  <si>
+    <t>Severnoye Tushino</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1256,7 +1256,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1599,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,16 +1615,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1">
         <v>41.5</v>
@@ -1646,7 +1646,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1">
         <v>35.4</v>
@@ -1660,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1">
         <v>60.5</v>
@@ -1702,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
@@ -1758,7 +1758,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1">
         <v>77.900000000000006</v>
@@ -1772,7 +1772,7 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1">
         <v>76.5</v>
@@ -1786,7 +1786,7 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1">
         <v>62.2</v>
@@ -1800,7 +1800,7 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1">
         <v>61.2</v>
@@ -1814,7 +1814,7 @@
         <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1">
         <v>82.4</v>
@@ -1828,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1">
         <v>29.1</v>
@@ -1842,7 +1842,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C17" s="1">
         <v>71.3</v>
@@ -1856,7 +1856,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C18" s="1">
         <v>14.8</v>
@@ -1870,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1">
         <v>34.9</v>
@@ -1884,7 +1884,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1">
         <v>63.2</v>
@@ -1898,7 +1898,7 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C21" s="1">
         <v>68.900000000000006</v>
@@ -1912,13 +1912,13 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C23" s="1">
         <v>70</v>
@@ -1940,7 +1940,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1">
         <v>43.2</v>
@@ -1968,7 +1968,7 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1">
         <v>60.7</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1">
         <v>19.2</v>
@@ -1999,10 +1999,10 @@
         <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C29" s="1">
         <v>19.100000000000001</v>
@@ -2024,7 +2024,7 @@
         <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C30" s="1">
         <v>24.7</v>
@@ -2052,7 +2052,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1">
         <v>58</v>
@@ -2066,7 +2066,7 @@
         <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1">
         <v>69.599999999999994</v>
@@ -2080,7 +2080,7 @@
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C34" s="1">
         <v>83.3</v>
@@ -2094,7 +2094,7 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1">
         <v>81.8</v>
@@ -2108,7 +2108,7 @@
         <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1">
         <v>53.9</v>
@@ -2122,7 +2122,7 @@
         <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1">
         <v>32.4</v>
@@ -2136,7 +2136,7 @@
         <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C38" s="1">
         <v>53.4</v>
@@ -2164,7 +2164,7 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1">
         <v>75.5</v>
@@ -2178,7 +2178,7 @@
         <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C41" s="1">
         <v>54.2</v>
@@ -2192,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C42" s="1">
         <v>14.8</v>
@@ -2206,7 +2206,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C43" s="1">
         <v>46</v>
@@ -2220,7 +2220,7 @@
         <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1">
         <v>77.099999999999994</v>
@@ -2234,7 +2234,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C45" s="1">
         <v>55.3</v>
@@ -2248,7 +2248,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C46" s="1">
         <v>72.5</v>
@@ -2276,7 +2276,7 @@
         <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C48" s="1">
         <v>25.6</v>
@@ -2290,7 +2290,7 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1">
         <v>65.900000000000006</v>
@@ -2304,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C50" s="1">
         <v>63.1</v>
@@ -2318,7 +2318,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1">
         <v>74.900000000000006</v>
@@ -2332,7 +2332,7 @@
         <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" s="1">
         <v>62.5</v>
@@ -2346,7 +2346,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="C53" s="1">
         <v>57</v>
@@ -2360,7 +2360,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1">
         <v>24.7</v>
@@ -2374,7 +2374,7 @@
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C55" s="1">
         <v>75.2</v>
@@ -2388,7 +2388,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C56" s="1">
         <v>47.8</v>
@@ -2416,7 +2416,7 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C58" s="1">
         <v>75.400000000000006</v>
@@ -2430,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C61" s="1">
         <v>42.4</v>
@@ -2472,7 +2472,7 @@
         <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C62" s="1">
         <v>32.4</v>
@@ -2486,7 +2486,7 @@
         <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C63" s="1">
         <v>76.900000000000006</v>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C64" s="1">
         <v>42.9</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C65" s="1">
         <v>82.2</v>
@@ -2528,7 +2528,7 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C66" s="1">
         <v>22.8</v>
@@ -2542,7 +2542,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C67" s="1">
         <v>59.7</v>
@@ -2556,7 +2556,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C68" s="1">
         <v>79.599999999999994</v>
@@ -2570,7 +2570,7 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C69" s="1">
         <v>80.7</v>
@@ -2584,7 +2584,7 @@
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C70" s="1">
         <v>43</v>
@@ -2598,7 +2598,7 @@
         <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C71" s="1">
         <v>71.400000000000006</v>
@@ -2612,7 +2612,7 @@
         <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1">
         <v>76</v>
@@ -2626,7 +2626,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="1">
         <v>25.5</v>
@@ -2640,7 +2640,7 @@
         <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="1">
         <v>59.7</v>
@@ -2654,7 +2654,7 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C75" s="1">
         <v>44.4</v>
@@ -2668,7 +2668,7 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C76" s="1">
         <v>46.1</v>
@@ -2682,7 +2682,7 @@
         <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C77" s="1">
         <v>32.6</v>
@@ -2696,7 +2696,7 @@
         <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C78" s="1">
         <v>36.700000000000003</v>
@@ -2710,7 +2710,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C79" s="1">
         <v>57</v>
@@ -2738,7 +2738,7 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C81" s="1">
         <v>50.5</v>
@@ -2752,7 +2752,7 @@
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C82" s="1">
         <v>44.8</v>
@@ -2766,7 +2766,7 @@
         <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" s="1">
         <v>42.3</v>
@@ -2780,7 +2780,7 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C84" s="1">
         <v>52.8</v>
@@ -2808,7 +2808,7 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="C86" s="1">
         <v>47.7</v>
@@ -2822,7 +2822,7 @@
         <v>112</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C87" s="1">
         <v>74.3</v>
@@ -2836,7 +2836,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C88" s="1">
         <v>63</v>
@@ -2850,7 +2850,7 @@
         <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C89" s="1">
         <v>66</v>
@@ -2864,7 +2864,7 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C90" s="1">
         <v>77</v>
@@ -2878,7 +2878,7 @@
         <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" s="1">
         <v>34.6</v>
@@ -2892,7 +2892,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="C92" s="1">
         <v>38.4</v>
@@ -2906,7 +2906,7 @@
         <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C93" s="1">
         <v>30.5</v>
@@ -2920,7 +2920,7 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C94" s="1">
         <v>32.200000000000003</v>
@@ -2934,7 +2934,7 @@
         <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C95" s="1">
         <v>72.099999999999994</v>
@@ -2948,7 +2948,7 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C96" s="1">
         <v>61.6</v>
@@ -2990,7 +2990,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C99" s="1">
         <v>53</v>
@@ -3004,7 +3004,7 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C100" s="1">
         <v>74</v>
@@ -3018,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C101" s="1">
         <v>48.3</v>
@@ -3032,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C102" s="1">
         <v>53.1</v>
@@ -3046,7 +3046,7 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C103" s="1">
         <v>43.5</v>
@@ -3060,7 +3060,7 @@
         <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C104" s="1">
         <v>62.4</v>
@@ -3102,7 +3102,7 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C107" s="1">
         <v>58.5</v>
@@ -3130,7 +3130,7 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C109" s="1">
         <v>60.9</v>
@@ -3144,7 +3144,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C110" s="1">
         <v>44.5</v>
@@ -3158,7 +3158,7 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C111" s="1">
         <v>58.4</v>
@@ -3172,7 +3172,7 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C112" s="1">
         <v>51.3</v>
@@ -3186,7 +3186,7 @@
         <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C113" s="1">
         <v>64.2</v>
@@ -3200,7 +3200,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C114" s="1">
         <v>44.4</v>
@@ -3214,13 +3214,13 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C116" s="1">
         <v>77.2</v>
@@ -3242,7 +3242,7 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C117" s="1">
         <v>51.4</v>
@@ -3256,7 +3256,7 @@
         <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C118" s="1">
         <v>38.200000000000003</v>
@@ -3284,7 +3284,7 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C120" s="1">
         <v>57.4</v>
@@ -3298,7 +3298,7 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C121" s="1">
         <v>64.3</v>
